--- a/reports/raw-views/assets/tables/meso_category_counts.xlsx
+++ b/reports/raw-views/assets/tables/meso_category_counts.xlsx
@@ -492,10 +492,10 @@
         <v>346</v>
       </c>
       <c r="D3" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E3" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4">
@@ -511,7 +511,7 @@
         <v>23</v>
       </c>
       <c r="D4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
         <v>3</v>
@@ -533,7 +533,7 @@
         <v>24</v>
       </c>
       <c r="E5" t="n">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
@@ -568,10 +568,10 @@
         <v>156</v>
       </c>
       <c r="D7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E7" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8">
@@ -606,7 +606,7 @@
         <v>660</v>
       </c>
       <c r="D9" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E9" t="n">
         <v>27</v>
@@ -628,7 +628,7 @@
         <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -644,10 +644,10 @@
         <v>427</v>
       </c>
       <c r="D11" t="n">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E11" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12">
@@ -663,7 +663,7 @@
         <v>88</v>
       </c>
       <c r="D12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E12" t="n">
         <v>17</v>
@@ -682,10 +682,10 @@
         <v>121</v>
       </c>
       <c r="D13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E13" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -701,10 +701,10 @@
         <v>312</v>
       </c>
       <c r="D14" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E14" t="n">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15">
@@ -720,10 +720,10 @@
         <v>520</v>
       </c>
       <c r="D15" t="n">
+        <v>23</v>
+      </c>
+      <c r="E15" t="n">
         <v>26</v>
-      </c>
-      <c r="E15" t="n">
-        <v>32</v>
       </c>
     </row>
     <row r="16">
@@ -739,7 +739,7 @@
         <v>162</v>
       </c>
       <c r="D16" t="n">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E16" t="n">
         <v>6</v>
@@ -758,10 +758,10 @@
         <v>322</v>
       </c>
       <c r="D17" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18">
@@ -777,7 +777,7 @@
         <v>240</v>
       </c>
       <c r="D18" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E18" t="n">
         <v>5</v>
@@ -796,10 +796,10 @@
         <v>15</v>
       </c>
       <c r="D19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E19" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -818,7 +818,7 @@
         <v>25</v>
       </c>
       <c r="E20" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21">
@@ -853,10 +853,10 @@
         <v>18</v>
       </c>
       <c r="D22" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E22" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -872,10 +872,10 @@
         <v>61</v>
       </c>
       <c r="D23" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E23" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24">
@@ -967,7 +967,7 @@
         <v>696</v>
       </c>
       <c r="D28" t="n">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E28" t="n">
         <v>50</v>
@@ -986,10 +986,10 @@
         <v>380</v>
       </c>
       <c r="D29" t="n">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E29" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30">
@@ -1005,10 +1005,10 @@
         <v>228</v>
       </c>
       <c r="D30" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E30" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31">
@@ -1043,10 +1043,10 @@
         <v>23</v>
       </c>
       <c r="D32" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33">
@@ -1062,7 +1062,7 @@
         <v>462</v>
       </c>
       <c r="D33" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E33" t="n">
         <v>6</v>
@@ -1081,10 +1081,10 @@
         <v>41</v>
       </c>
       <c r="D34" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E34" t="n">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35">
@@ -1100,10 +1100,10 @@
         <v>124</v>
       </c>
       <c r="D35" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E35" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36">
@@ -1122,7 +1122,7 @@
         <v>27</v>
       </c>
       <c r="E36" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37">
@@ -1141,7 +1141,7 @@
         <v>7</v>
       </c>
       <c r="E37" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38">
@@ -1176,10 +1176,10 @@
         <v>284</v>
       </c>
       <c r="D39" t="n">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E39" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40">
@@ -1255,7 +1255,7 @@
         <v>2</v>
       </c>
       <c r="E43" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44">
@@ -1290,10 +1290,10 @@
         <v>114</v>
       </c>
       <c r="D45" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E45" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46">
@@ -1309,10 +1309,10 @@
         <v>86</v>
       </c>
       <c r="D46" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E46" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47">
@@ -1328,10 +1328,10 @@
         <v>286</v>
       </c>
       <c r="D47" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E47" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48">
@@ -1347,7 +1347,7 @@
         <v>1001</v>
       </c>
       <c r="D48" t="n">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E48" t="n">
         <v>25</v>
@@ -1366,10 +1366,10 @@
         <v>107</v>
       </c>
       <c r="D49" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E49" t="n">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="50">
@@ -1404,10 +1404,10 @@
         <v>96</v>
       </c>
       <c r="D51" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E51" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52">
@@ -1423,10 +1423,10 @@
         <v>70</v>
       </c>
       <c r="D52" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E52" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
